--- a/inputs/data_raw/Data_SJPF_Decrements_AV2020.xlsx
+++ b/inputs/data_raw/Data_SJPF_Decrements_AV2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD0D6FF-8798-48C9-ADF4-118A923F73F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59C78E0-3070-494D-BABF-37E6120D9C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="43" r:id="rId1"/>
@@ -18,14 +18,16 @@
     <sheet name="servRet_t1" sheetId="36" r:id="rId3"/>
     <sheet name="servRet_t2" sheetId="44" r:id="rId4"/>
     <sheet name="disbRet" sheetId="39" r:id="rId5"/>
-    <sheet name="defrRet" sheetId="41" r:id="rId6"/>
-    <sheet name="mortality" sheetId="40" r:id="rId7"/>
-    <sheet name="mortality_raw" sheetId="32" r:id="rId8"/>
-    <sheet name="servRet_t1_raw" sheetId="28" r:id="rId9"/>
-    <sheet name="servRet_t2p_raw" sheetId="45" r:id="rId10"/>
-    <sheet name="salScale_raw" sheetId="34" r:id="rId11"/>
-    <sheet name="disbRet_raw" sheetId="31" r:id="rId12"/>
-    <sheet name="defrRet_YOS_raw" sheetId="33" r:id="rId13"/>
+    <sheet name="disbRet_PERF" sheetId="47" r:id="rId6"/>
+    <sheet name="defrRet" sheetId="41" r:id="rId7"/>
+    <sheet name="mortality" sheetId="40" r:id="rId8"/>
+    <sheet name="mortality_raw" sheetId="32" r:id="rId9"/>
+    <sheet name="servRet_t1_raw" sheetId="28" r:id="rId10"/>
+    <sheet name="servRet_t2p_raw" sheetId="45" r:id="rId11"/>
+    <sheet name="salScale_raw" sheetId="34" r:id="rId12"/>
+    <sheet name="disbRet_raw" sheetId="31" r:id="rId13"/>
+    <sheet name="defrRet_YOS_raw" sheetId="33" r:id="rId14"/>
+    <sheet name="disbRetPERF_raw" sheetId="46" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="83">
   <si>
     <t>TOC</t>
   </si>
@@ -464,6 +466,24 @@
   <si>
     <t>Note that mortality improvement is based on MP2019 in AV2020 for P&amp;F, rather than MP2020 (which is used in the 2020 federated plan AV)</t>
   </si>
+  <si>
+    <t>source: CalPERS experience study 2017, ep 81</t>
+  </si>
+  <si>
+    <t>perf_poff</t>
+  </si>
+  <si>
+    <t>perf_pa.fire</t>
+  </si>
+  <si>
+    <t>perf_pa.police</t>
+  </si>
+  <si>
+    <t>C6:E27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use poff </t>
+  </si>
 </sst>
 </file>
 
@@ -474,7 +494,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +607,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ArialNarrow"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -602,7 +634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -657,13 +689,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -884,6 +931,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="15"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1000,6 +1051,99 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>260739</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF91CAE7-1851-4D65-9A4D-00B777B41EC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8705851" y="266700"/>
+          <a:ext cx="5423288" cy="5867400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162690</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D151A4FF-081E-44EF-AD11-499CA46B9764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8553451" y="323850"/>
+          <a:ext cx="5477639" cy="5515745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -1078,6 +1222,55 @@
         <a:xfrm>
           <a:off x="7058025" y="2266950"/>
           <a:ext cx="5477639" cy="5191850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>37442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCCDD4C-4853-4B5A-9429-8DCEEC4C1F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="0"/>
+          <a:ext cx="6791325" cy="6514442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1284,6 +1477,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1782D5-5942-467B-B3A2-A5587914C2AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="219075"/>
+          <a:ext cx="6791325" cy="6514442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -1329,7 +1571,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1378,7 +1620,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1515,7 +1757,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1553,99 +1795,6 @@
         <a:xfrm>
           <a:off x="6477000" y="561975"/>
           <a:ext cx="5534797" cy="3591426"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>260739</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF91CAE7-1851-4D65-9A4D-00B777B41EC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8705851" y="266700"/>
-          <a:ext cx="5423288" cy="5867400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>162690</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>124595</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D151A4FF-081E-44EF-AD11-499CA46B9764}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8553451" y="323850"/>
-          <a:ext cx="5477639" cy="5515745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1926,14 +2075,14 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1944,6 +2093,837 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6284C5A4-23C7-4E9C-AAD3-20E9F77D80CA}">
+  <dimension ref="A1:V31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="10" width="18" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:22" ht="37.5" customHeight="1">
+      <c r="C5" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="74"/>
+      <c r="U5" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" s="75"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75">
+      <c r="C6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="23">
+        <v>50</v>
+      </c>
+      <c r="E6" s="54">
+        <f>K6</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F6" s="54">
+        <f t="shared" ref="F6" si="0">L6</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="22">
+        <v>50</v>
+      </c>
+      <c r="K6" s="52">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L6" s="52">
+        <v>1</v>
+      </c>
+      <c r="M6" s="52">
+        <v>0.35</v>
+      </c>
+      <c r="N6" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="64">
+        <v>50</v>
+      </c>
+      <c r="S6" s="68">
+        <v>55</v>
+      </c>
+      <c r="T6" s="68">
+        <v>100</v>
+      </c>
+      <c r="U6" s="68">
+        <v>30</v>
+      </c>
+      <c r="V6" s="68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75">
+      <c r="C7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="23">
+        <v>51</v>
+      </c>
+      <c r="E7" s="54">
+        <f>K7/100</f>
+        <v>0.45</v>
+      </c>
+      <c r="F7" s="54">
+        <f t="shared" ref="F7" si="1">L7/100</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="22">
+        <v>51</v>
+      </c>
+      <c r="K7" s="52">
+        <v>45</v>
+      </c>
+      <c r="L7" s="52">
+        <v>100</v>
+      </c>
+      <c r="M7" s="52">
+        <v>35</v>
+      </c>
+      <c r="N7" s="52">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="64">
+        <v>51</v>
+      </c>
+      <c r="S7" s="65">
+        <v>45</v>
+      </c>
+      <c r="T7" s="65">
+        <v>100</v>
+      </c>
+      <c r="U7" s="65">
+        <v>35</v>
+      </c>
+      <c r="V7" s="65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75">
+      <c r="C8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="23">
+        <v>52</v>
+      </c>
+      <c r="E8" s="54">
+        <f t="shared" ref="E8:E13" si="2">K8/100</f>
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="54">
+        <f t="shared" ref="F8:F13" si="3">L8/100</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="22">
+        <v>52</v>
+      </c>
+      <c r="K8" s="52">
+        <v>40</v>
+      </c>
+      <c r="L8" s="52">
+        <v>100</v>
+      </c>
+      <c r="M8" s="52">
+        <v>35</v>
+      </c>
+      <c r="N8" s="52">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="64">
+        <v>52</v>
+      </c>
+      <c r="S8" s="65">
+        <v>40</v>
+      </c>
+      <c r="T8" s="65">
+        <v>100</v>
+      </c>
+      <c r="U8" s="65">
+        <v>35</v>
+      </c>
+      <c r="V8" s="65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75">
+      <c r="C9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="23">
+        <v>53</v>
+      </c>
+      <c r="E9" s="54">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="22">
+        <v>53</v>
+      </c>
+      <c r="K9" s="52">
+        <v>30</v>
+      </c>
+      <c r="L9" s="52">
+        <v>100</v>
+      </c>
+      <c r="M9" s="52">
+        <v>35</v>
+      </c>
+      <c r="N9" s="52">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="64">
+        <v>53</v>
+      </c>
+      <c r="S9" s="65">
+        <v>30</v>
+      </c>
+      <c r="T9" s="65">
+        <v>100</v>
+      </c>
+      <c r="U9" s="65">
+        <v>35</v>
+      </c>
+      <c r="V9" s="65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75">
+      <c r="C10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="23">
+        <v>54</v>
+      </c>
+      <c r="E10" s="54">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="22">
+        <v>54</v>
+      </c>
+      <c r="K10" s="52">
+        <v>30</v>
+      </c>
+      <c r="L10" s="52">
+        <v>100</v>
+      </c>
+      <c r="M10" s="52">
+        <v>35</v>
+      </c>
+      <c r="N10" s="52">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="64">
+        <v>54</v>
+      </c>
+      <c r="S10" s="65">
+        <v>30</v>
+      </c>
+      <c r="T10" s="65">
+        <v>100</v>
+      </c>
+      <c r="U10" s="65">
+        <v>35</v>
+      </c>
+      <c r="V10" s="65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75">
+      <c r="C11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="23">
+        <v>55</v>
+      </c>
+      <c r="E11" s="54">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="22">
+        <v>55</v>
+      </c>
+      <c r="K11" s="52">
+        <v>30</v>
+      </c>
+      <c r="L11" s="52">
+        <v>100</v>
+      </c>
+      <c r="M11" s="52">
+        <v>30</v>
+      </c>
+      <c r="N11" s="52">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="64">
+        <v>55</v>
+      </c>
+      <c r="S11" s="65">
+        <v>30</v>
+      </c>
+      <c r="T11" s="65">
+        <v>100</v>
+      </c>
+      <c r="U11" s="65">
+        <v>30</v>
+      </c>
+      <c r="V11" s="65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75">
+      <c r="C12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="23">
+        <v>56</v>
+      </c>
+      <c r="E12" s="54">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="22">
+        <v>56</v>
+      </c>
+      <c r="K12" s="52">
+        <v>30</v>
+      </c>
+      <c r="L12" s="52">
+        <v>100</v>
+      </c>
+      <c r="M12" s="52">
+        <v>25</v>
+      </c>
+      <c r="N12" s="52">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="64">
+        <v>56</v>
+      </c>
+      <c r="S12" s="65">
+        <v>30</v>
+      </c>
+      <c r="T12" s="65">
+        <v>100</v>
+      </c>
+      <c r="U12" s="65">
+        <v>25</v>
+      </c>
+      <c r="V12" s="65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75">
+      <c r="C13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="23">
+        <v>57</v>
+      </c>
+      <c r="E13" s="54">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="22">
+        <v>57</v>
+      </c>
+      <c r="K13" s="52">
+        <v>30</v>
+      </c>
+      <c r="L13" s="52">
+        <v>100</v>
+      </c>
+      <c r="M13" s="52">
+        <v>20</v>
+      </c>
+      <c r="N13" s="52">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="64">
+        <v>57</v>
+      </c>
+      <c r="S13" s="65">
+        <v>30</v>
+      </c>
+      <c r="T13" s="65">
+        <v>100</v>
+      </c>
+      <c r="U13" s="65">
+        <v>20</v>
+      </c>
+      <c r="V13" s="65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="16.5">
+      <c r="C14" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="23">
+        <v>58</v>
+      </c>
+      <c r="E14" s="54">
+        <f>K$14/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="54">
+        <f t="shared" ref="F14:F17" si="4">L$14/100</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <v>58</v>
+      </c>
+      <c r="J14" s="22">
+        <v>-61</v>
+      </c>
+      <c r="K14" s="52">
+        <v>50</v>
+      </c>
+      <c r="L14" s="52">
+        <v>100</v>
+      </c>
+      <c r="M14" s="52">
+        <v>27.5</v>
+      </c>
+      <c r="N14" s="52">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="64">
+        <v>58</v>
+      </c>
+      <c r="R14" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" s="65">
+        <v>50</v>
+      </c>
+      <c r="T14" s="65">
+        <v>100</v>
+      </c>
+      <c r="U14" s="65">
+        <v>27.5</v>
+      </c>
+      <c r="V14" s="65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75">
+      <c r="C15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="23">
+        <v>59</v>
+      </c>
+      <c r="E15" s="54">
+        <f>K$14/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="54">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="53">
+        <v>100</v>
+      </c>
+      <c r="L15" s="53">
+        <v>100</v>
+      </c>
+      <c r="M15" s="53">
+        <v>100</v>
+      </c>
+      <c r="N15" s="53">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" s="65">
+        <v>100</v>
+      </c>
+      <c r="T15" s="65">
+        <v>100</v>
+      </c>
+      <c r="U15" s="65">
+        <v>100</v>
+      </c>
+      <c r="V15" s="65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75">
+      <c r="C16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="23">
+        <v>60</v>
+      </c>
+      <c r="E16" s="54">
+        <f>K$14/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="54">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="15.75">
+      <c r="C17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="23">
+        <v>61</v>
+      </c>
+      <c r="E17" s="54">
+        <f>K$14/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="54">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75">
+      <c r="C18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="23">
+        <v>62</v>
+      </c>
+      <c r="E18" s="54">
+        <f>K15/100</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="54">
+        <f t="shared" ref="F18" si="5">L15/100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="15.75">
+      <c r="C19" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="23">
+        <v>50</v>
+      </c>
+      <c r="E19" s="54">
+        <f>M6</f>
+        <v>0.35</v>
+      </c>
+      <c r="F19" s="54">
+        <f>N6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="15.75">
+      <c r="C20" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="23">
+        <v>51</v>
+      </c>
+      <c r="E20" s="54">
+        <f t="shared" ref="E20:F26" si="6">M7/100</f>
+        <v>0.35</v>
+      </c>
+      <c r="F20" s="54">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="15.75">
+      <c r="C21" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="23">
+        <v>52</v>
+      </c>
+      <c r="E21" s="54">
+        <f t="shared" si="6"/>
+        <v>0.35</v>
+      </c>
+      <c r="F21" s="54">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="15.75">
+      <c r="C22" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="23">
+        <v>53</v>
+      </c>
+      <c r="E22" s="54">
+        <f t="shared" si="6"/>
+        <v>0.35</v>
+      </c>
+      <c r="F22" s="54">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="15.75">
+      <c r="C23" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="23">
+        <v>54</v>
+      </c>
+      <c r="E23" s="54">
+        <f t="shared" si="6"/>
+        <v>0.35</v>
+      </c>
+      <c r="F23" s="54">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="15.75">
+      <c r="C24" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="23">
+        <v>55</v>
+      </c>
+      <c r="E24" s="54">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="F24" s="54">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="15.75">
+      <c r="C25" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="23">
+        <v>56</v>
+      </c>
+      <c r="E25" s="54">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="F25" s="54">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="15.75">
+      <c r="C26" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="23">
+        <v>57</v>
+      </c>
+      <c r="E26" s="54">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="54">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="15.75">
+      <c r="C27" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="23">
+        <v>58</v>
+      </c>
+      <c r="E27" s="54">
+        <f t="shared" ref="E27:F30" si="7">M$14/100</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F27" s="54">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="15.75">
+      <c r="C28" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="23">
+        <v>59</v>
+      </c>
+      <c r="E28" s="54">
+        <f t="shared" si="7"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F28" s="54">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="15.75">
+      <c r="C29" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="23">
+        <v>60</v>
+      </c>
+      <c r="E29" s="54">
+        <f t="shared" si="7"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F29" s="54">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="15.75">
+      <c r="C30" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="23">
+        <v>61</v>
+      </c>
+      <c r="E30" s="54">
+        <f t="shared" si="7"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F30" s="54">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="15.75">
+      <c r="C31" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="23">
+        <v>62</v>
+      </c>
+      <c r="E31" s="54">
+        <f>M15/100</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="54">
+        <f>N15/100</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F0179D-30E8-4C62-9A5E-014F54719930}">
   <dimension ref="A1:O35"/>
   <sheetViews>
@@ -1951,7 +2931,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
@@ -1959,7 +2939,7 @@
     <col min="14" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -1967,10 +2947,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75">
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75">
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="76"/>
@@ -1978,7 +2958,7 @@
       <c r="M5" s="76"/>
       <c r="N5" s="76"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75">
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="77"/>
@@ -1986,7 +2966,7 @@
       <c r="M6" s="77"/>
       <c r="N6" s="77"/>
     </row>
-    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="31.5">
       <c r="D7" s="56" t="s">
         <v>49</v>
       </c>
@@ -2007,7 +2987,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="31.5">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -2034,7 +3014,7 @@
       <c r="N8" s="31"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -2059,7 +3039,7 @@
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75">
       <c r="B10" t="s">
         <v>45</v>
       </c>
@@ -2104,7 +3084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -2149,7 +3129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75">
       <c r="B12" t="s">
         <v>45</v>
       </c>
@@ -2194,7 +3174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -2239,7 +3219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -2284,7 +3264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -2308,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -2332,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" t="s">
         <v>45</v>
       </c>
@@ -2356,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -2380,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" t="s">
         <v>45</v>
       </c>
@@ -2404,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -2424,7 +3404,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" t="s">
         <v>46</v>
       </c>
@@ -2444,7 +3424,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" t="s">
         <v>46</v>
       </c>
@@ -2464,7 +3444,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -2484,7 +3464,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" t="s">
         <v>46</v>
       </c>
@@ -2504,7 +3484,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -2524,7 +3504,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26" t="s">
         <v>46</v>
       </c>
@@ -2544,7 +3524,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27" t="s">
         <v>46</v>
       </c>
@@ -2564,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28" t="s">
         <v>46</v>
       </c>
@@ -2584,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="B29" t="s">
         <v>46</v>
       </c>
@@ -2604,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30" t="s">
         <v>46</v>
       </c>
@@ -2624,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -2644,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32" t="s">
         <v>46</v>
       </c>
@@ -2664,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33" t="s">
         <v>46</v>
       </c>
@@ -2684,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34" t="s">
         <v>46</v>
       </c>
@@ -2704,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7">
       <c r="B35" t="s">
         <v>46</v>
       </c>
@@ -2734,7 +3714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629E860E-E8FE-4A24-8EBF-A4AFA98F77F6}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -2742,9 +3722,9 @@
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -2752,12 +3732,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="C4" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="42.75">
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
@@ -2765,7 +3745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="C6" s="35">
         <v>0</v>
       </c>
@@ -2773,7 +3753,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -2781,7 +3761,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -2789,7 +3769,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -2797,7 +3777,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -2805,7 +3785,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -2813,7 +3793,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -2821,7 +3801,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -2829,7 +3809,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -2837,7 +3817,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -2845,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -2853,373 +3833,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4">
       <c r="C17" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="39">
         <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49872E21-9499-435D-89B9-F58D0CA564F5}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="5" width="29.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="46">
-        <v>25</v>
-      </c>
-      <c r="D6" s="47">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="E6" s="47">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="46">
-        <v>30</v>
-      </c>
-      <c r="D7" s="48">
-        <v>0.45</v>
-      </c>
-      <c r="E7" s="48">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="46">
-        <v>35</v>
-      </c>
-      <c r="D8" s="48">
-        <v>0.74</v>
-      </c>
-      <c r="E8" s="48">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="46">
-        <v>40</v>
-      </c>
-      <c r="D9" s="48">
-        <v>1.03</v>
-      </c>
-      <c r="E9" s="48">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="46">
-        <v>45</v>
-      </c>
-      <c r="D10" s="48">
-        <v>1.32</v>
-      </c>
-      <c r="E10" s="48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="46">
-        <v>50</v>
-      </c>
-      <c r="D11" s="48">
-        <v>2.7</v>
-      </c>
-      <c r="E11" s="48">
-        <v>5.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="46">
-        <v>55</v>
-      </c>
-      <c r="D12" s="48">
-        <v>6.88</v>
-      </c>
-      <c r="E12" s="48">
-        <v>7.54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="46">
-        <v>60</v>
-      </c>
-      <c r="D13" s="48">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="E13" s="48">
-        <v>10.77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="49">
-        <v>65</v>
-      </c>
-      <c r="D14" s="50">
-        <v>10.47</v>
-      </c>
-      <c r="E14" s="50">
-        <v>14.84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="46">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="46">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <f>D7/100</f>
-        <v>4.5000000000000005E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="46">
-        <v>35</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ref="D18" si="0">D8/100</f>
-        <v>7.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="46">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ref="D19" si="1">D9/100</f>
-        <v>1.03E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="46">
-        <v>45</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ref="D20" si="2">D10/100</f>
-        <v>1.32E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="46">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ref="D21" si="3">D11/100</f>
-        <v>2.7000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="46">
-        <v>55</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ref="D22" si="4">D12/100</f>
-        <v>6.88E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="46">
-        <v>60</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23" si="5">D13/100</f>
-        <v>8.7100000000000011E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="49">
-        <v>65</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ref="D24" si="6">D14/100</f>
-        <v>0.1047</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="46">
-        <v>25</v>
-      </c>
-      <c r="D25">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="46">
-        <v>30</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26:D33" si="7">E7/100</f>
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="46">
-        <v>35</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="7"/>
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="46">
-        <v>40</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="7"/>
-        <v>2.8000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="46">
-        <v>45</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="7"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="46">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="7"/>
-        <v>5.0799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="46">
-        <v>55</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="7"/>
-        <v>7.5399999999999995E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="46">
-        <v>60</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="7"/>
-        <v>0.10769999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="49">
-        <v>65</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="7"/>
-        <v>0.1484</v>
       </c>
     </row>
   </sheetData>
@@ -3229,6 +3848,367 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49872E21-9499-435D-89B9-F58D0CA564F5}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="5" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" s="46">
+        <v>25</v>
+      </c>
+      <c r="D6" s="47">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E6" s="47">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="46">
+        <v>30</v>
+      </c>
+      <c r="D7" s="48">
+        <v>0.45</v>
+      </c>
+      <c r="E7" s="48">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="46">
+        <v>35</v>
+      </c>
+      <c r="D8" s="48">
+        <v>0.74</v>
+      </c>
+      <c r="E8" s="48">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="46">
+        <v>40</v>
+      </c>
+      <c r="D9" s="48">
+        <v>1.03</v>
+      </c>
+      <c r="E9" s="48">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" s="46">
+        <v>45</v>
+      </c>
+      <c r="D10" s="48">
+        <v>1.32</v>
+      </c>
+      <c r="E10" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="46">
+        <v>50</v>
+      </c>
+      <c r="D11" s="48">
+        <v>2.7</v>
+      </c>
+      <c r="E11" s="48">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" s="46">
+        <v>55</v>
+      </c>
+      <c r="D12" s="48">
+        <v>6.88</v>
+      </c>
+      <c r="E12" s="48">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="46">
+        <v>60</v>
+      </c>
+      <c r="D13" s="48">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E13" s="48">
+        <v>10.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="49">
+        <v>65</v>
+      </c>
+      <c r="D14" s="50">
+        <v>10.47</v>
+      </c>
+      <c r="E14" s="50">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="46">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="46">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <f>D7/100</f>
+        <v>4.5000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="46">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18" si="0">D8/100</f>
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="46">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19" si="1">D9/100</f>
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="46">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="2">D10/100</f>
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="46">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21" si="3">D11/100</f>
+        <v>2.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="46">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22" si="4">D12/100</f>
+        <v>6.88E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="46">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23" si="5">D13/100</f>
+        <v>8.7100000000000011E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="49">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24" si="6">D14/100</f>
+        <v>0.1047</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="46">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="46">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D33" si="7">E7/100</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="46">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="7"/>
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="46">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="7"/>
+        <v>2.8000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="46">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="46">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="7"/>
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="46">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="7"/>
+        <v>7.5399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="46">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>0.10769999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="49">
+        <v>65</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="7"/>
+        <v>0.1484</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC8F0F-4CD9-47BA-8CB1-3D7DD949E61E}">
   <dimension ref="A1:I44"/>
   <sheetViews>
@@ -3236,13 +4216,13 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -3250,7 +4230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
         <v>57</v>
       </c>
@@ -3264,7 +4244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -3285,7 +4265,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -3306,7 +4286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
         <v>45</v>
       </c>
@@ -3327,7 +4307,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -3348,7 +4328,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -3369,7 +4349,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
         <v>45</v>
       </c>
@@ -3390,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -3411,7 +4391,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
         <v>45</v>
       </c>
@@ -3432,7 +4412,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -3453,7 +4433,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -3474,7 +4454,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -3495,7 +4475,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -3516,7 +4496,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" t="s">
         <v>45</v>
       </c>
@@ -3537,7 +4517,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -3558,7 +4538,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" t="s">
         <v>45</v>
       </c>
@@ -3579,7 +4559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" t="s">
         <v>45</v>
       </c>
@@ -3600,7 +4580,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" t="s">
         <v>45</v>
       </c>
@@ -3621,7 +4601,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -3642,7 +4622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -3663,7 +4643,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -3684,7 +4664,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -3696,7 +4676,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" t="s">
         <v>46</v>
       </c>
@@ -3708,7 +4688,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" t="s">
         <v>46</v>
       </c>
@@ -3720,7 +4700,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" t="s">
         <v>46</v>
       </c>
@@ -3732,7 +4712,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" t="s">
         <v>46</v>
       </c>
@@ -3744,7 +4724,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" t="s">
         <v>46</v>
       </c>
@@ -3756,7 +4736,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -3768,7 +4748,7 @@
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" t="s">
         <v>46</v>
       </c>
@@ -3780,7 +4760,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>46</v>
       </c>
@@ -3792,7 +4772,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>46</v>
       </c>
@@ -3804,7 +4784,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>46</v>
       </c>
@@ -3816,7 +4796,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
         <v>46</v>
       </c>
@@ -3828,7 +4808,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
         <v>46</v>
       </c>
@@ -3840,7 +4820,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4">
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -3852,7 +4832,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
         <v>46</v>
       </c>
@@ -3864,7 +4844,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4">
       <c r="B40" t="s">
         <v>46</v>
       </c>
@@ -3876,7 +4856,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
         <v>46</v>
       </c>
@@ -3888,7 +4868,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4">
       <c r="B42" t="s">
         <v>46</v>
       </c>
@@ -3900,7 +4880,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4">
       <c r="B43" t="s">
         <v>46</v>
       </c>
@@ -3912,7 +4892,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4">
       <c r="B44" t="s">
         <v>46</v>
       </c>
@@ -3922,6 +4902,328 @@
       <c r="D44">
         <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD27B4E-E0EA-4BCE-84A2-1B0E5A24BF69}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="46">
+        <v>20</v>
+      </c>
+      <c r="D7" s="78">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="46">
+        <v>30</v>
+      </c>
+      <c r="D8" s="78">
+        <v>1.67E-3</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="46">
+        <v>40</v>
+      </c>
+      <c r="D9" s="78">
+        <v>4.64E-3</v>
+      </c>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="46">
+        <v>50</v>
+      </c>
+      <c r="D10" s="78">
+        <v>1.027E-2</v>
+      </c>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="46">
+        <v>60</v>
+      </c>
+      <c r="D11" s="78">
+        <v>1.966E-2</v>
+      </c>
+      <c r="E11" s="48"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="46">
+        <v>70</v>
+      </c>
+      <c r="D12" s="78">
+        <v>3.4029999999999998E-2</v>
+      </c>
+      <c r="E12" s="48"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="46">
+        <v>80</v>
+      </c>
+      <c r="D13" s="78">
+        <v>5.4739999999999997E-2</v>
+      </c>
+      <c r="E13" s="48"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="46">
+        <v>20</v>
+      </c>
+      <c r="D14" s="78">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="46">
+        <v>30</v>
+      </c>
+      <c r="D15" s="78">
+        <v>5.5999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="46">
+        <v>40</v>
+      </c>
+      <c r="D16" s="78">
+        <v>2.2499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="46">
+        <v>50</v>
+      </c>
+      <c r="D17" s="78">
+        <v>2.0789999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="46">
+        <v>60</v>
+      </c>
+      <c r="D18" s="78">
+        <v>4.3749999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="46">
+        <v>70</v>
+      </c>
+      <c r="D19" s="78">
+        <v>8.2210000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="46">
+        <v>80</v>
+      </c>
+      <c r="D20" s="78">
+        <v>0.14219000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="46">
+        <v>20</v>
+      </c>
+      <c r="D21" s="78">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="46">
+        <v>30</v>
+      </c>
+      <c r="D22" s="78">
+        <v>5.5999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="46">
+        <v>40</v>
+      </c>
+      <c r="D23" s="78">
+        <v>2.2499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="46">
+        <v>50</v>
+      </c>
+      <c r="D24" s="78">
+        <v>2.0789999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="46">
+        <v>60</v>
+      </c>
+      <c r="D25" s="78">
+        <v>4.3749999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="46">
+        <v>70</v>
+      </c>
+      <c r="D26" s="78">
+        <v>8.2210000000000005E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="46">
+        <v>80</v>
+      </c>
+      <c r="D27" s="78">
+        <v>0.14219000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12">
+      <c r="F35" s="78">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="G35" s="78">
+        <v>1.67E-3</v>
+      </c>
+      <c r="H35" s="78">
+        <v>4.64E-3</v>
+      </c>
+      <c r="I35" s="78">
+        <v>1.027E-2</v>
+      </c>
+      <c r="J35" s="78">
+        <v>1.966E-2</v>
+      </c>
+      <c r="K35" s="78">
+        <v>3.4029999999999998E-2</v>
+      </c>
+      <c r="L35" s="78">
+        <v>5.4739999999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12">
+      <c r="F36" s="78">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G36" s="78">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="H36" s="78">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="I36" s="78">
+        <v>2.0789999999999999E-2</v>
+      </c>
+      <c r="J36" s="78">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="K36" s="78">
+        <v>8.2210000000000005E-2</v>
+      </c>
+      <c r="L36" s="78">
+        <v>0.14219000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3938,19 +5240,19 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3958,7 +5260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3966,7 +5268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3974,10 +5276,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" s="33"/>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="C7" s="61" t="s">
         <v>6</v>
       </c>
@@ -3985,7 +5287,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="C8" s="62">
         <v>0</v>
       </c>
@@ -3997,7 +5299,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" s="62">
         <v>1</v>
       </c>
@@ -4009,7 +5311,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" s="62">
         <v>2</v>
       </c>
@@ -4021,7 +5323,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" s="62">
         <v>3</v>
       </c>
@@ -4033,7 +5335,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" s="62">
         <v>4</v>
       </c>
@@ -4045,7 +5347,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" s="62">
         <v>5</v>
       </c>
@@ -4057,7 +5359,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" s="62">
         <v>6</v>
       </c>
@@ -4069,7 +5371,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" s="62">
         <v>7</v>
       </c>
@@ -4081,7 +5383,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" s="62">
         <v>8</v>
       </c>
@@ -4093,7 +5395,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6">
       <c r="C17" s="62">
         <v>9</v>
       </c>
@@ -4105,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6">
       <c r="C18" s="62">
         <v>10</v>
       </c>
@@ -4117,7 +5419,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6">
       <c r="C19" s="61">
         <v>11</v>
       </c>
@@ -4147,17 +5449,17 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4165,7 +5467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4173,7 +5475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4181,7 +5483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -4195,7 +5497,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" t="s">
         <v>45</v>
       </c>
@@ -4209,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -4223,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" t="s">
         <v>45</v>
       </c>
@@ -4237,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -4251,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11" t="s">
         <v>45</v>
       </c>
@@ -4265,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -4279,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" t="s">
         <v>45</v>
       </c>
@@ -4293,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" t="s">
         <v>45</v>
       </c>
@@ -4307,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -4321,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" t="s">
         <v>45</v>
       </c>
@@ -4335,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6">
       <c r="C17" t="s">
         <v>45</v>
       </c>
@@ -4349,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6">
       <c r="C18" t="s">
         <v>45</v>
       </c>
@@ -4363,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6">
       <c r="C19" t="s">
         <v>45</v>
       </c>
@@ -4377,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6">
       <c r="C20" t="s">
         <v>46</v>
       </c>
@@ -4391,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6">
       <c r="C21" t="s">
         <v>46</v>
       </c>
@@ -4405,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6">
       <c r="C22" t="s">
         <v>46</v>
       </c>
@@ -4419,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6">
       <c r="C23" t="s">
         <v>46</v>
       </c>
@@ -4433,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6">
       <c r="C24" t="s">
         <v>46</v>
       </c>
@@ -4447,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6">
       <c r="C25" t="s">
         <v>46</v>
       </c>
@@ -4461,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6">
       <c r="C26" t="s">
         <v>46</v>
       </c>
@@ -4475,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6">
       <c r="C27" t="s">
         <v>46</v>
       </c>
@@ -4489,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6">
       <c r="C28" t="s">
         <v>46</v>
       </c>
@@ -4503,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6">
       <c r="C29" t="s">
         <v>46</v>
       </c>
@@ -4517,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6">
       <c r="C30" t="s">
         <v>46</v>
       </c>
@@ -4531,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6">
       <c r="C31" t="s">
         <v>46</v>
       </c>
@@ -4545,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6">
       <c r="C32" t="s">
         <v>46</v>
       </c>
@@ -4576,17 +5878,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4594,7 +5896,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4602,7 +5904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4610,7 +5912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.25" customHeight="1">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -4630,7 +5932,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="C7" t="s">
         <v>45</v>
       </c>
@@ -4650,7 +5952,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14.25" customHeight="1">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -4670,7 +5972,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.25" customHeight="1">
       <c r="C9" t="s">
         <v>45</v>
       </c>
@@ -4690,7 +5992,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.25" customHeight="1">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -4710,7 +6012,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.25" customHeight="1">
       <c r="C11" t="s">
         <v>45</v>
       </c>
@@ -4730,7 +6032,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14.25" customHeight="1">
       <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>45</v>
@@ -4751,7 +6053,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" t="s">
         <v>45</v>
@@ -4772,7 +6074,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="B14" s="11"/>
       <c r="C14" t="s">
         <v>45</v>
@@ -4793,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="B15" s="11"/>
       <c r="C15" t="s">
         <v>45</v>
@@ -4814,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.25" customHeight="1">
       <c r="B16" s="11"/>
       <c r="C16" t="s">
         <v>45</v>
@@ -4835,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="14.25" customHeight="1">
       <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>45</v>
@@ -4856,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="14.25" customHeight="1">
       <c r="B18" s="11"/>
       <c r="C18" t="s">
         <v>45</v>
@@ -4877,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="14.25" customHeight="1">
       <c r="B19" s="11"/>
       <c r="C19" t="s">
         <v>45</v>
@@ -4898,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="14.25" customHeight="1">
       <c r="B20" s="11"/>
       <c r="C20" t="s">
         <v>45</v>
@@ -4919,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="14.25" customHeight="1">
       <c r="B21" s="11"/>
       <c r="C21" t="s">
         <v>45</v>
@@ -4940,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="14.25" customHeight="1">
       <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>45</v>
@@ -4961,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="14.25" customHeight="1">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>46</v>
@@ -4982,7 +6284,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="15.75">
       <c r="B24" s="17"/>
       <c r="C24" t="s">
         <v>46</v>
@@ -5003,7 +6305,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="C25" t="s">
         <v>46</v>
       </c>
@@ -5023,7 +6325,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="C26" t="s">
         <v>46</v>
       </c>
@@ -5043,7 +6345,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="C27" t="s">
         <v>46</v>
       </c>
@@ -5063,7 +6365,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="C28" t="s">
         <v>46</v>
       </c>
@@ -5083,7 +6385,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="C29" t="s">
         <v>46</v>
       </c>
@@ -5103,7 +6405,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="C30" t="s">
         <v>46</v>
       </c>
@@ -5123,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="C31" t="s">
         <v>46</v>
       </c>
@@ -5143,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="C32" t="s">
         <v>46</v>
       </c>
@@ -5163,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8">
       <c r="C33" t="s">
         <v>46</v>
       </c>
@@ -5183,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8">
       <c r="C34" t="s">
         <v>46</v>
       </c>
@@ -5203,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8">
       <c r="C35" t="s">
         <v>46</v>
       </c>
@@ -5223,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8">
       <c r="C36" t="s">
         <v>46</v>
       </c>
@@ -5243,7 +6545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8">
       <c r="C37" t="s">
         <v>46</v>
       </c>
@@ -5263,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8">
       <c r="C38" t="s">
         <v>46</v>
       </c>
@@ -5297,20 +6599,20 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="C14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5318,7 +6620,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5326,7 +6628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5334,7 +6636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -5345,7 +6647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="C7" t="s">
         <v>45</v>
       </c>
@@ -5356,7 +6658,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -5367,7 +6669,7 @@
         <v>4.5000000000000005E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="C9" t="s">
         <v>45</v>
       </c>
@@ -5378,7 +6680,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -5389,7 +6691,7 @@
         <v>1.03E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" t="s">
         <v>45</v>
       </c>
@@ -5400,7 +6702,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -5411,7 +6713,7 @@
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="C13" t="s">
         <v>45</v>
       </c>
@@ -5422,7 +6724,7 @@
         <v>6.88E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75">
       <c r="C14" t="s">
         <v>45</v>
       </c>
@@ -5433,7 +6735,7 @@
         <v>8.7100000000000011E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -5444,7 +6746,7 @@
         <v>0.1047</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="C16" t="s">
         <v>46</v>
       </c>
@@ -5455,7 +6757,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5">
       <c r="C17" t="s">
         <v>46</v>
       </c>
@@ -5466,7 +6768,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>46</v>
       </c>
@@ -5477,7 +6779,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19" t="s">
         <v>46</v>
       </c>
@@ -5488,7 +6790,7 @@
         <v>2.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5">
       <c r="C20" t="s">
         <v>46</v>
       </c>
@@ -5499,7 +6801,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5">
       <c r="C21" t="s">
         <v>46</v>
       </c>
@@ -5510,7 +6812,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5">
       <c r="C22" t="s">
         <v>46</v>
       </c>
@@ -5521,7 +6823,7 @@
         <v>7.5399999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5">
       <c r="C23" t="s">
         <v>46</v>
       </c>
@@ -5532,7 +6834,7 @@
         <v>0.10769999999999999</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5">
       <c r="C24" t="s">
         <v>46</v>
       </c>
@@ -5553,6 +6855,304 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F626F830-1637-416C-9ADE-9897D8461AFB}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3.8999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>1.67E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>4.64E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>1.027E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1">
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>1.966E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1">
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+      <c r="E12">
+        <v>3.4029999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1">
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>5.4739999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1">
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>5.5999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1">
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>2.2499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="18" customHeight="1">
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>2.0789999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="18" customHeight="1">
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>4.3749999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="18" customHeight="1">
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>8.2210000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="18" customHeight="1">
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>0.14219000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="18" customHeight="1">
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" s="79">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="18" customHeight="1">
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>4.7600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="18" customHeight="1">
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="18" customHeight="1">
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>1.8460000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="18" customHeight="1">
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>6.0240000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="18" customHeight="1">
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <v>8.5489999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="18" customHeight="1">
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>0.11161</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{F7293095-B868-4C13-84CE-8F80DE012A89}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140C462A-14EE-4CAF-AB62-253A6557DD8D}">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -5560,14 +7160,14 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5575,7 +7175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5583,7 +7183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5591,7 +7191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
         <v>57</v>
       </c>
@@ -5602,7 +7202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="C7" t="s">
         <v>45</v>
       </c>
@@ -5613,7 +7213,7 @@
         <v>0.13750000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -5624,7 +7224,7 @@
         <v>0.11749999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="C9" t="s">
         <v>45</v>
       </c>
@@ -5635,7 +7235,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -5646,7 +7246,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" t="s">
         <v>45</v>
       </c>
@@ -5657,7 +7257,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -5668,7 +7268,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="C13" t="s">
         <v>45</v>
       </c>
@@ -5679,7 +7279,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="C14" t="s">
         <v>45</v>
       </c>
@@ -5690,7 +7290,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -5701,7 +7301,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="C16" t="s">
         <v>45</v>
       </c>
@@ -5712,7 +7312,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5">
       <c r="C17" t="s">
         <v>45</v>
       </c>
@@ -5723,7 +7323,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>45</v>
       </c>
@@ -5734,7 +7334,7 @@
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19" t="s">
         <v>45</v>
       </c>
@@ -5745,7 +7345,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5">
       <c r="C20" t="s">
         <v>45</v>
       </c>
@@ -5756,7 +7356,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5">
       <c r="C21" t="s">
         <v>45</v>
       </c>
@@ -5767,7 +7367,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5">
       <c r="C22" t="s">
         <v>45</v>
       </c>
@@ -5778,7 +7378,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5">
       <c r="C23" t="s">
         <v>45</v>
       </c>
@@ -5789,7 +7389,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5">
       <c r="C24" t="s">
         <v>45</v>
       </c>
@@ -5800,7 +7400,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5">
       <c r="C25" t="s">
         <v>45</v>
       </c>
@@ -5811,7 +7411,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5">
       <c r="C26" t="s">
         <v>45</v>
       </c>
@@ -5822,7 +7422,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5">
       <c r="C27" t="s">
         <v>46</v>
       </c>
@@ -5833,7 +7433,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5">
       <c r="C28" t="s">
         <v>46</v>
       </c>
@@ -5844,7 +7444,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5">
       <c r="C29" t="s">
         <v>46</v>
       </c>
@@ -5855,7 +7455,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5">
       <c r="C30" t="s">
         <v>46</v>
       </c>
@@ -5866,7 +7466,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5">
       <c r="C31" t="s">
         <v>46</v>
       </c>
@@ -5877,7 +7477,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5">
       <c r="C32" t="s">
         <v>46</v>
       </c>
@@ -5888,7 +7488,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5">
       <c r="C33" t="s">
         <v>46</v>
       </c>
@@ -5899,7 +7499,7 @@
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5">
       <c r="C34" t="s">
         <v>46</v>
       </c>
@@ -5910,7 +7510,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5">
       <c r="C35" t="s">
         <v>46</v>
       </c>
@@ -5921,7 +7521,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5">
       <c r="C36" t="s">
         <v>46</v>
       </c>
@@ -5932,7 +7532,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5">
       <c r="C37" t="s">
         <v>46</v>
       </c>
@@ -5943,7 +7543,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="C38" t="s">
         <v>46</v>
       </c>
@@ -5954,7 +7554,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5">
       <c r="C39" t="s">
         <v>46</v>
       </c>
@@ -5965,7 +7565,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5">
       <c r="C40" t="s">
         <v>46</v>
       </c>
@@ -5976,7 +7576,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5">
       <c r="C41" t="s">
         <v>46</v>
       </c>
@@ -5987,7 +7587,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5">
       <c r="C42" t="s">
         <v>46</v>
       </c>
@@ -5998,7 +7598,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5">
       <c r="C43" t="s">
         <v>46</v>
       </c>
@@ -6009,7 +7609,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5">
       <c r="C44" t="s">
         <v>46</v>
       </c>
@@ -6020,7 +7620,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5">
       <c r="C45" t="s">
         <v>46</v>
       </c>
@@ -6031,7 +7631,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5">
       <c r="C46" t="s">
         <v>46</v>
       </c>
@@ -6051,15 +7651,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177A1718-E890-4F9C-86E9-BB55E3E37C95}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -6068,12 +7668,12 @@
     <col min="8" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6081,7 +7681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6089,7 +7689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6097,7 +7697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -6109,7 +7709,7 @@
       <c r="H5" s="69"/>
       <c r="I5" s="69"/>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30" customHeight="1">
       <c r="C6" s="2"/>
       <c r="D6" s="70" t="s">
         <v>22</v>
@@ -6124,7 +7724,7 @@
       </c>
       <c r="I6" s="72"/>
     </row>
-    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="25.5">
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
@@ -6147,7 +7747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="25.5">
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
@@ -6170,7 +7770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="C9" s="10">
         <v>20</v>
       </c>
@@ -6185,7 +7785,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="C10" s="10">
         <v>25</v>
       </c>
@@ -6204,7 +7804,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="C11" s="10">
         <v>30</v>
       </c>
@@ -6223,7 +7823,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="C12" s="10">
         <v>35</v>
       </c>
@@ -6242,7 +7842,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="C13" s="10">
         <v>40</v>
       </c>
@@ -6261,7 +7861,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="C14" s="10">
         <v>45</v>
       </c>
@@ -6280,7 +7880,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="C15" s="10">
         <v>50</v>
       </c>
@@ -6311,7 +7911,7 @@
         <v>3.774193548387097</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="C16" s="10">
         <v>55</v>
       </c>
@@ -6342,7 +7942,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11">
       <c r="C17" s="10">
         <v>60</v>
       </c>
@@ -6373,7 +7973,7 @@
         <v>2.8688524590163937</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11">
       <c r="C18" s="10">
         <v>65</v>
       </c>
@@ -6404,7 +8004,7 @@
         <v>2.2553191489361701</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11">
       <c r="C19" s="10">
         <v>70</v>
       </c>
@@ -6431,7 +8031,7 @@
         <v>1.9266666666666667</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11">
       <c r="C20" s="10">
         <v>75</v>
       </c>
@@ -6446,7 +8046,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11">
       <c r="C21" s="10">
         <v>80</v>
       </c>
@@ -6461,7 +8061,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11">
       <c r="C22" s="10">
         <v>85</v>
       </c>
@@ -6476,7 +8076,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11">
       <c r="C23" s="10">
         <v>90</v>
       </c>
@@ -6491,7 +8091,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11">
       <c r="C24" s="10">
         <v>95</v>
       </c>
@@ -6520,860 +8120,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D933BCA-4687-4E4C-BE87-A1256666CA3D}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6284C5A4-23C7-4E9C-AAD3-20E9F77D80CA}">
-  <dimension ref="A1:V31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="10" width="18" customWidth="1"/>
-    <col min="13" max="14" width="13.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" s="74"/>
-      <c r="U5" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="V5" s="75"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="23">
-        <v>50</v>
-      </c>
-      <c r="E6" s="54">
-        <f>K6</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F6" s="54">
-        <f t="shared" ref="F6" si="0">L6</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="22">
-        <v>50</v>
-      </c>
-      <c r="K6" s="52">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L6" s="52">
-        <v>1</v>
-      </c>
-      <c r="M6" s="52">
-        <v>0.35</v>
-      </c>
-      <c r="N6" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="64">
-        <v>50</v>
-      </c>
-      <c r="S6" s="68">
-        <v>55</v>
-      </c>
-      <c r="T6" s="68">
-        <v>100</v>
-      </c>
-      <c r="U6" s="68">
-        <v>30</v>
-      </c>
-      <c r="V6" s="68">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="23">
-        <v>51</v>
-      </c>
-      <c r="E7" s="54">
-        <f>K7/100</f>
-        <v>0.45</v>
-      </c>
-      <c r="F7" s="54">
-        <f t="shared" ref="F7" si="1">L7/100</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="22">
-        <v>51</v>
-      </c>
-      <c r="K7" s="52">
-        <v>45</v>
-      </c>
-      <c r="L7" s="52">
-        <v>100</v>
-      </c>
-      <c r="M7" s="52">
-        <v>35</v>
-      </c>
-      <c r="N7" s="52">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="64">
-        <v>51</v>
-      </c>
-      <c r="S7" s="65">
-        <v>45</v>
-      </c>
-      <c r="T7" s="65">
-        <v>100</v>
-      </c>
-      <c r="U7" s="65">
-        <v>35</v>
-      </c>
-      <c r="V7" s="65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="23">
-        <v>52</v>
-      </c>
-      <c r="E8" s="54">
-        <f t="shared" ref="E8:E13" si="2">K8/100</f>
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="54">
-        <f t="shared" ref="F8:F13" si="3">L8/100</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="22">
-        <v>52</v>
-      </c>
-      <c r="K8" s="52">
-        <v>40</v>
-      </c>
-      <c r="L8" s="52">
-        <v>100</v>
-      </c>
-      <c r="M8" s="52">
-        <v>35</v>
-      </c>
-      <c r="N8" s="52">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="64">
-        <v>52</v>
-      </c>
-      <c r="S8" s="65">
-        <v>40</v>
-      </c>
-      <c r="T8" s="65">
-        <v>100</v>
-      </c>
-      <c r="U8" s="65">
-        <v>35</v>
-      </c>
-      <c r="V8" s="65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="23">
-        <v>53</v>
-      </c>
-      <c r="E9" s="54">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="54">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="22">
-        <v>53</v>
-      </c>
-      <c r="K9" s="52">
-        <v>30</v>
-      </c>
-      <c r="L9" s="52">
-        <v>100</v>
-      </c>
-      <c r="M9" s="52">
-        <v>35</v>
-      </c>
-      <c r="N9" s="52">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="64">
-        <v>53</v>
-      </c>
-      <c r="S9" s="65">
-        <v>30</v>
-      </c>
-      <c r="T9" s="65">
-        <v>100</v>
-      </c>
-      <c r="U9" s="65">
-        <v>35</v>
-      </c>
-      <c r="V9" s="65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="23">
-        <v>54</v>
-      </c>
-      <c r="E10" s="54">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="F10" s="54">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="22">
-        <v>54</v>
-      </c>
-      <c r="K10" s="52">
-        <v>30</v>
-      </c>
-      <c r="L10" s="52">
-        <v>100</v>
-      </c>
-      <c r="M10" s="52">
-        <v>35</v>
-      </c>
-      <c r="N10" s="52">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="64">
-        <v>54</v>
-      </c>
-      <c r="S10" s="65">
-        <v>30</v>
-      </c>
-      <c r="T10" s="65">
-        <v>100</v>
-      </c>
-      <c r="U10" s="65">
-        <v>35</v>
-      </c>
-      <c r="V10" s="65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="23">
-        <v>55</v>
-      </c>
-      <c r="E11" s="54">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="F11" s="54">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="22">
-        <v>55</v>
-      </c>
-      <c r="K11" s="52">
-        <v>30</v>
-      </c>
-      <c r="L11" s="52">
-        <v>100</v>
-      </c>
-      <c r="M11" s="52">
-        <v>30</v>
-      </c>
-      <c r="N11" s="52">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="64">
-        <v>55</v>
-      </c>
-      <c r="S11" s="65">
-        <v>30</v>
-      </c>
-      <c r="T11" s="65">
-        <v>100</v>
-      </c>
-      <c r="U11" s="65">
-        <v>30</v>
-      </c>
-      <c r="V11" s="65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="23">
-        <v>56</v>
-      </c>
-      <c r="E12" s="54">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="F12" s="54">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="22">
-        <v>56</v>
-      </c>
-      <c r="K12" s="52">
-        <v>30</v>
-      </c>
-      <c r="L12" s="52">
-        <v>100</v>
-      </c>
-      <c r="M12" s="52">
-        <v>25</v>
-      </c>
-      <c r="N12" s="52">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="64">
-        <v>56</v>
-      </c>
-      <c r="S12" s="65">
-        <v>30</v>
-      </c>
-      <c r="T12" s="65">
-        <v>100</v>
-      </c>
-      <c r="U12" s="65">
-        <v>25</v>
-      </c>
-      <c r="V12" s="65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="23">
-        <v>57</v>
-      </c>
-      <c r="E13" s="54">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="54">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="22">
-        <v>57</v>
-      </c>
-      <c r="K13" s="52">
-        <v>30</v>
-      </c>
-      <c r="L13" s="52">
-        <v>100</v>
-      </c>
-      <c r="M13" s="52">
-        <v>20</v>
-      </c>
-      <c r="N13" s="52">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="64">
-        <v>57</v>
-      </c>
-      <c r="S13" s="65">
-        <v>30</v>
-      </c>
-      <c r="T13" s="65">
-        <v>100</v>
-      </c>
-      <c r="U13" s="65">
-        <v>20</v>
-      </c>
-      <c r="V13" s="65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C14" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="23">
-        <v>58</v>
-      </c>
-      <c r="E14" s="54">
-        <f>K$14/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="54">
-        <f t="shared" ref="F14:F17" si="4">L$14/100</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="23">
-        <v>58</v>
-      </c>
-      <c r="J14" s="22">
-        <v>-61</v>
-      </c>
-      <c r="K14" s="52">
-        <v>50</v>
-      </c>
-      <c r="L14" s="52">
-        <v>100</v>
-      </c>
-      <c r="M14" s="52">
-        <v>27.5</v>
-      </c>
-      <c r="N14" s="52">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="64">
-        <v>58</v>
-      </c>
-      <c r="R14" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="S14" s="65">
-        <v>50</v>
-      </c>
-      <c r="T14" s="65">
-        <v>100</v>
-      </c>
-      <c r="U14" s="65">
-        <v>27.5</v>
-      </c>
-      <c r="V14" s="65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="23">
-        <v>59</v>
-      </c>
-      <c r="E15" s="54">
-        <f>K$14/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="53">
-        <v>100</v>
-      </c>
-      <c r="L15" s="53">
-        <v>100</v>
-      </c>
-      <c r="M15" s="53">
-        <v>100</v>
-      </c>
-      <c r="N15" s="53">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="S15" s="65">
-        <v>100</v>
-      </c>
-      <c r="T15" s="65">
-        <v>100</v>
-      </c>
-      <c r="U15" s="65">
-        <v>100</v>
-      </c>
-      <c r="V15" s="65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="23">
-        <v>60</v>
-      </c>
-      <c r="E16" s="54">
-        <f>K$14/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="23">
-        <v>61</v>
-      </c>
-      <c r="E17" s="54">
-        <f>K$14/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="54">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="23">
-        <v>62</v>
-      </c>
-      <c r="E18" s="54">
-        <f>K15/100</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="54">
-        <f t="shared" ref="F18" si="5">L15/100</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="23">
-        <v>50</v>
-      </c>
-      <c r="E19" s="54">
-        <f>M6</f>
-        <v>0.35</v>
-      </c>
-      <c r="F19" s="54">
-        <f>N6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="23">
-        <v>51</v>
-      </c>
-      <c r="E20" s="54">
-        <f t="shared" ref="E20:F26" si="6">M7/100</f>
-        <v>0.35</v>
-      </c>
-      <c r="F20" s="54">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="23">
-        <v>52</v>
-      </c>
-      <c r="E21" s="54">
-        <f t="shared" si="6"/>
-        <v>0.35</v>
-      </c>
-      <c r="F21" s="54">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="23">
-        <v>53</v>
-      </c>
-      <c r="E22" s="54">
-        <f t="shared" si="6"/>
-        <v>0.35</v>
-      </c>
-      <c r="F22" s="54">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="23">
-        <v>54</v>
-      </c>
-      <c r="E23" s="54">
-        <f t="shared" si="6"/>
-        <v>0.35</v>
-      </c>
-      <c r="F23" s="54">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="23">
-        <v>55</v>
-      </c>
-      <c r="E24" s="54">
-        <f t="shared" si="6"/>
-        <v>0.3</v>
-      </c>
-      <c r="F24" s="54">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="23">
-        <v>56</v>
-      </c>
-      <c r="E25" s="54">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="F25" s="54">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="23">
-        <v>57</v>
-      </c>
-      <c r="E26" s="54">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-      <c r="F26" s="54">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="23">
-        <v>58</v>
-      </c>
-      <c r="E27" s="54">
-        <f t="shared" ref="E27:F30" si="7">M$14/100</f>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F27" s="54">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="23">
-        <v>59</v>
-      </c>
-      <c r="E28" s="54">
-        <f t="shared" si="7"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F28" s="54">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="23">
-        <v>60</v>
-      </c>
-      <c r="E29" s="54">
-        <f t="shared" si="7"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F29" s="54">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="23">
-        <v>61</v>
-      </c>
-      <c r="E30" s="54">
-        <f t="shared" si="7"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F30" s="54">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="23">
-        <v>62</v>
-      </c>
-      <c r="E31" s="54">
-        <f>M15/100</f>
-        <v>1</v>
-      </c>
-      <c r="F31" s="54">
-        <f>N15/100</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/inputs/data_raw/Data_SJPF_Decrements_AV2020.xlsx
+++ b/inputs/data_raw/Data_SJPF_Decrements_AV2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59C78E0-3070-494D-BABF-37E6120D9C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280AB17E-5607-418C-A53C-EF534D091BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="43" r:id="rId1"/>
@@ -904,6 +904,10 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -931,10 +935,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2160,18 +2160,18 @@
       <c r="N5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="73" t="s">
+      <c r="Q5" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74" t="s">
+      <c r="R5" s="75"/>
+      <c r="S5" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="74"/>
-      <c r="U5" s="75" t="s">
+      <c r="T5" s="76"/>
+      <c r="U5" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="75"/>
+      <c r="V5" s="77"/>
     </row>
     <row r="6" spans="1:22" ht="15.75">
       <c r="C6" s="25" t="s">
@@ -2953,20 +2953,20 @@
     <row r="5" spans="1:15" ht="15.75">
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-    </row>
-    <row r="7" spans="1:15" ht="31.5">
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75">
       <c r="D7" s="56" t="s">
         <v>49</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="31.5">
+    <row r="8" spans="1:15" ht="15.75">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -4949,7 +4949,7 @@
       <c r="C7" s="46">
         <v>20</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="69">
         <v>3.8999999999999999E-4</v>
       </c>
       <c r="E7" s="47"/>
@@ -4961,7 +4961,7 @@
       <c r="C8" s="46">
         <v>30</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="69">
         <v>1.67E-3</v>
       </c>
       <c r="E8" s="48"/>
@@ -4973,7 +4973,7 @@
       <c r="C9" s="46">
         <v>40</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="69">
         <v>4.64E-3</v>
       </c>
       <c r="E9" s="48"/>
@@ -4985,7 +4985,7 @@
       <c r="C10" s="46">
         <v>50</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="69">
         <v>1.027E-2</v>
       </c>
       <c r="E10" s="48"/>
@@ -4997,7 +4997,7 @@
       <c r="C11" s="46">
         <v>60</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="69">
         <v>1.966E-2</v>
       </c>
       <c r="E11" s="48"/>
@@ -5009,7 +5009,7 @@
       <c r="C12" s="46">
         <v>70</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="69">
         <v>3.4029999999999998E-2</v>
       </c>
       <c r="E12" s="48"/>
@@ -5021,7 +5021,7 @@
       <c r="C13" s="46">
         <v>80</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="69">
         <v>5.4739999999999997E-2</v>
       </c>
       <c r="E13" s="48"/>
@@ -5033,7 +5033,7 @@
       <c r="C14" s="46">
         <v>20</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="69">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       <c r="C15" s="46">
         <v>30</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="69">
         <v>5.5999999999999995E-4</v>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       <c r="C16" s="46">
         <v>40</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="69">
         <v>2.2499999999999998E-3</v>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       <c r="C17" s="46">
         <v>50</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="69">
         <v>2.0789999999999999E-2</v>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       <c r="C18" s="46">
         <v>60</v>
       </c>
-      <c r="D18" s="78">
+      <c r="D18" s="69">
         <v>4.3749999999999997E-2</v>
       </c>
     </row>
@@ -5088,7 +5088,7 @@
       <c r="C19" s="46">
         <v>70</v>
       </c>
-      <c r="D19" s="78">
+      <c r="D19" s="69">
         <v>8.2210000000000005E-2</v>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       <c r="C20" s="46">
         <v>80</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="69">
         <v>0.14219000000000001</v>
       </c>
     </row>
@@ -5110,7 +5110,7 @@
       <c r="C21" s="46">
         <v>20</v>
       </c>
-      <c r="D21" s="78">
+      <c r="D21" s="69">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       <c r="C22" s="46">
         <v>30</v>
       </c>
-      <c r="D22" s="78">
+      <c r="D22" s="69">
         <v>5.5999999999999995E-4</v>
       </c>
     </row>
@@ -5132,7 +5132,7 @@
       <c r="C23" s="46">
         <v>40</v>
       </c>
-      <c r="D23" s="78">
+      <c r="D23" s="69">
         <v>2.2499999999999998E-3</v>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       <c r="C24" s="46">
         <v>50</v>
       </c>
-      <c r="D24" s="78">
+      <c r="D24" s="69">
         <v>2.0789999999999999E-2</v>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
       <c r="C25" s="46">
         <v>60</v>
       </c>
-      <c r="D25" s="78">
+      <c r="D25" s="69">
         <v>4.3749999999999997E-2</v>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       <c r="C26" s="46">
         <v>70</v>
       </c>
-      <c r="D26" s="78">
+      <c r="D26" s="69">
         <v>8.2210000000000005E-2</v>
       </c>
     </row>
@@ -5176,53 +5176,53 @@
       <c r="C27" s="46">
         <v>80</v>
       </c>
-      <c r="D27" s="78">
+      <c r="D27" s="69">
         <v>0.14219000000000001</v>
       </c>
     </row>
     <row r="35" spans="6:12">
-      <c r="F35" s="78">
+      <c r="F35" s="69">
         <v>3.8999999999999999E-4</v>
       </c>
-      <c r="G35" s="78">
+      <c r="G35" s="69">
         <v>1.67E-3</v>
       </c>
-      <c r="H35" s="78">
+      <c r="H35" s="69">
         <v>4.64E-3</v>
       </c>
-      <c r="I35" s="78">
+      <c r="I35" s="69">
         <v>1.027E-2</v>
       </c>
-      <c r="J35" s="78">
+      <c r="J35" s="69">
         <v>1.966E-2</v>
       </c>
-      <c r="K35" s="78">
+      <c r="K35" s="69">
         <v>3.4029999999999998E-2</v>
       </c>
-      <c r="L35" s="78">
+      <c r="L35" s="69">
         <v>5.4739999999999997E-2</v>
       </c>
     </row>
     <row r="36" spans="6:12">
-      <c r="F36" s="78">
+      <c r="F36" s="69">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G36" s="78">
+      <c r="G36" s="69">
         <v>5.5999999999999995E-4</v>
       </c>
-      <c r="H36" s="78">
+      <c r="H36" s="69">
         <v>2.2499999999999998E-3</v>
       </c>
-      <c r="I36" s="78">
+      <c r="I36" s="69">
         <v>2.0789999999999999E-2</v>
       </c>
-      <c r="J36" s="78">
+      <c r="J36" s="69">
         <v>4.3749999999999997E-2</v>
       </c>
-      <c r="K36" s="78">
+      <c r="K36" s="69">
         <v>8.2210000000000005E-2</v>
       </c>
-      <c r="L36" s="78">
+      <c r="L36" s="69">
         <v>0.14219000000000001</v>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
         <v>6.88E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75">
+    <row r="14" spans="1:5">
       <c r="C14" t="s">
         <v>45</v>
       </c>
@@ -6859,7 +6859,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7069,7 +7069,7 @@
       <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="70">
         <v>3.8999999999999999E-4</v>
       </c>
       <c r="F21" t="s">
@@ -7701,30 +7701,30 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1">
       <c r="C6" s="2"/>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72" t="s">
+      <c r="G6" s="74"/>
+      <c r="H6" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="72"/>
-    </row>
-    <row r="7" spans="1:11" ht="25.5">
+      <c r="I6" s="74"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
